--- a/Excel/Pizza.xlsx
+++ b/Excel/Pizza.xlsx
@@ -3,23 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tushar.kumar.chawda\eclipse-workspace\ReadExcel\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tushar.kumar.chawda\git\repository3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0DD5D6-4313-4442-B349-B352C4EA27DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EDF760-34F8-4E2F-A7E9-A8EB9D29CE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="880" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
     <sheet name="Target" sheetId="2" r:id="rId2"/>
-    <sheet name="Result" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>VegS</t>
   </si>
@@ -40,18 +39,11 @@
   <si>
     <t>NonVegS</t>
   </si>
-  <si>
-    <t>Matches</t>
-  </si>
-  <si>
-    <t>Do Not Match</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,32 +53,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,10 +73,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,7 +357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -445,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F84CA6A-80C4-465F-BF18-D194B589692D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -499,131 +469,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="2" max="2" width="13.62109375" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>1001.0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1001.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="s" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1002.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1002.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1003.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1003.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1004.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1004.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>